--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Genus.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Genus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20543" windowHeight="9240"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1529,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A531" sqref="$A531:$XFD540"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="M319" sqref="M319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -2460,11 +2460,11 @@
     </row>
     <row r="73" s="1" customFormat="1" spans="1:5">
       <c r="A73" s="1">
-        <v>21010</v>
+        <v>20010</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>79</v>
@@ -2475,11 +2475,11 @@
     </row>
     <row r="74" s="1" customFormat="1" spans="1:5">
       <c r="A74" s="1">
-        <v>21020</v>
+        <v>20020</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>81</v>
@@ -2490,11 +2490,11 @@
     </row>
     <row r="75" s="1" customFormat="1" spans="1:3">
       <c r="A75" s="1">
-        <v>21030</v>
+        <v>20030</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>51</v>
@@ -2502,11 +2502,11 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
       <c r="A76" s="1">
-        <v>21040</v>
+        <v>20040</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>82</v>
@@ -2514,11 +2514,11 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
       <c r="A77" s="1">
-        <v>21050</v>
+        <v>20050</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>52</v>
@@ -2526,11 +2526,11 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
       <c r="A78" s="1">
-        <v>21060</v>
+        <v>20060</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>64</v>
@@ -2538,11 +2538,11 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
       <c r="A79" s="1">
-        <v>21070</v>
+        <v>20070</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>65</v>
@@ -2550,11 +2550,11 @@
     </row>
     <row r="80" s="1" customFormat="1" spans="1:3">
       <c r="A80" s="1">
-        <v>21080</v>
+        <v>20080</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>53</v>
@@ -2562,11 +2562,11 @@
     </row>
     <row r="81" s="1" customFormat="1" spans="1:3">
       <c r="A81" s="1">
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>54</v>
@@ -2574,18 +2574,18 @@
     </row>
     <row r="82" s="1" customFormat="1" spans="1:5">
       <c r="A82" s="1">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D82" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>69</v>
@@ -2593,18 +2593,18 @@
     </row>
     <row r="83" s="1" customFormat="1" spans="1:5">
       <c r="A83" s="1">
-        <v>21110</v>
+        <v>20110</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>83</v>
@@ -2612,18 +2612,18 @@
     </row>
     <row r="84" s="1" customFormat="1" spans="1:5">
       <c r="A84" s="1">
-        <v>21120</v>
+        <v>20120</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>84</v>
@@ -2631,18 +2631,18 @@
     </row>
     <row r="85" s="1" customFormat="1" spans="1:6">
       <c r="A85" s="1">
-        <v>21130</v>
+        <v>20130</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" ref="B85:B116" si="3">INT(A85/1000)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D85" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>85</v>
@@ -2653,18 +2653,18 @@
     </row>
     <row r="86" s="1" customFormat="1" spans="1:5">
       <c r="A86" s="1">
-        <v>21140</v>
+        <v>20140</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D86" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>87</v>
@@ -2672,18 +2672,18 @@
     </row>
     <row r="87" s="1" customFormat="1" spans="1:5">
       <c r="A87" s="1">
-        <v>21150</v>
+        <v>20150</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D87" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>88</v>
@@ -2691,18 +2691,18 @@
     </row>
     <row r="88" s="1" customFormat="1" spans="1:6">
       <c r="A88" s="1">
-        <v>21160</v>
+        <v>20160</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D88" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>89</v>
@@ -2713,18 +2713,18 @@
     </row>
     <row r="89" s="1" customFormat="1" spans="1:6">
       <c r="A89" s="1">
-        <v>21170</v>
+        <v>20170</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D89" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>91</v>
@@ -2735,18 +2735,18 @@
     </row>
     <row r="90" s="1" customFormat="1" spans="1:5">
       <c r="A90" s="1">
-        <v>21180</v>
+        <v>20180</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D90" s="1">
         <f>A81</f>
-        <v>21090</v>
+        <v>20090</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>93</v>
@@ -2754,11 +2754,11 @@
     </row>
     <row r="91" s="1" customFormat="1" spans="1:3">
       <c r="A91" s="1">
-        <v>21190</v>
+        <v>20190</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>55</v>
@@ -2766,11 +2766,11 @@
     </row>
     <row r="92" s="1" customFormat="1" spans="1:3">
       <c r="A92" s="1">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>66</v>
@@ -2778,11 +2778,11 @@
     </row>
     <row r="94" s="1" customFormat="1" spans="1:3">
       <c r="A94" s="1">
-        <v>22010</v>
+        <v>21010</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>94</v>
@@ -2790,11 +2790,11 @@
     </row>
     <row r="95" s="1" customFormat="1" spans="1:3">
       <c r="A95" s="1">
-        <v>22020</v>
+        <v>21020</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>95</v>
@@ -2802,11 +2802,11 @@
     </row>
     <row r="96" s="1" customFormat="1" spans="1:3">
       <c r="A96" s="1">
-        <v>22030</v>
+        <v>21030</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>63</v>
@@ -2814,11 +2814,11 @@
     </row>
     <row r="97" s="1" customFormat="1" spans="1:3">
       <c r="A97" s="1">
-        <v>22040</v>
+        <v>21040</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>51</v>
@@ -2826,11 +2826,11 @@
     </row>
     <row r="98" s="1" customFormat="1" spans="1:3">
       <c r="A98" s="1">
-        <v>22050</v>
+        <v>21050</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>52</v>
@@ -2838,11 +2838,11 @@
     </row>
     <row r="99" s="1" customFormat="1" spans="1:3">
       <c r="A99" s="1">
-        <v>22060</v>
+        <v>21060</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>65</v>
@@ -2850,11 +2850,11 @@
     </row>
     <row r="100" s="1" customFormat="1" spans="1:3">
       <c r="A100" s="1">
-        <v>22070</v>
+        <v>21070</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>53</v>
@@ -2862,11 +2862,11 @@
     </row>
     <row r="101" s="1" customFormat="1" spans="1:3">
       <c r="A101" s="1">
-        <v>22080</v>
+        <v>21080</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>54</v>
@@ -2874,11 +2874,11 @@
     </row>
     <row r="102" s="1" customFormat="1" spans="1:3">
       <c r="A102" s="1">
-        <v>22090</v>
+        <v>21090</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>55</v>
@@ -2886,11 +2886,11 @@
     </row>
     <row r="104" s="1" customFormat="1" spans="1:3">
       <c r="A104" s="1">
-        <v>23010</v>
+        <v>22010</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" ref="B104:B112" si="4">INT(A104/1000)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>67</v>
@@ -2898,11 +2898,11 @@
     </row>
     <row r="105" s="1" customFormat="1" spans="1:3">
       <c r="A105" s="1">
-        <v>23020</v>
+        <v>22020</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>62</v>
@@ -2910,11 +2910,11 @@
     </row>
     <row r="106" s="1" customFormat="1" spans="1:3">
       <c r="A106" s="1">
-        <v>23030</v>
+        <v>22030</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>51</v>
@@ -2922,11 +2922,11 @@
     </row>
     <row r="107" s="1" customFormat="1" spans="1:3">
       <c r="A107" s="1">
-        <v>23040</v>
+        <v>22040</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="108" s="1" customFormat="1" spans="1:3">
       <c r="A108" s="1">
-        <v>23050</v>
+        <v>22050</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>65</v>
@@ -2946,11 +2946,11 @@
     </row>
     <row r="109" s="1" customFormat="1" spans="1:3">
       <c r="A109" s="1">
-        <v>23060</v>
+        <v>22060</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>53</v>
@@ -2958,11 +2958,11 @@
     </row>
     <row r="110" s="1" customFormat="1" spans="1:3">
       <c r="A110" s="1">
-        <v>23070</v>
+        <v>22070</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>54</v>
@@ -2970,11 +2970,11 @@
     </row>
     <row r="111" s="1" customFormat="1" spans="1:3">
       <c r="A111" s="1">
-        <v>23080</v>
+        <v>22080</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>55</v>
@@ -2982,11 +2982,11 @@
     </row>
     <row r="112" s="1" customFormat="1" spans="1:3">
       <c r="A112" s="1">
-        <v>23090</v>
+        <v>22090</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>96</v>
@@ -2994,11 +2994,11 @@
     </row>
     <row r="114" s="1" customFormat="1" spans="1:3">
       <c r="A114" s="1">
-        <v>24010</v>
+        <v>23010</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" ref="B114:B123" si="5">INT(A114/1000)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>67</v>
@@ -3006,11 +3006,11 @@
     </row>
     <row r="115" s="1" customFormat="1" spans="1:3">
       <c r="A115" s="1">
-        <v>24020</v>
+        <v>23020</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>97</v>
@@ -3018,11 +3018,11 @@
     </row>
     <row r="116" s="1" customFormat="1" spans="1:3">
       <c r="A116" s="1">
-        <v>24030</v>
+        <v>23030</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>51</v>
@@ -3030,11 +3030,11 @@
     </row>
     <row r="117" s="1" customFormat="1" spans="1:3">
       <c r="A117" s="1">
-        <v>24040</v>
+        <v>23040</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>52</v>
@@ -3042,11 +3042,11 @@
     </row>
     <row r="118" s="1" customFormat="1" spans="1:3">
       <c r="A118" s="1">
-        <v>24050</v>
+        <v>23050</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>53</v>
@@ -3054,11 +3054,11 @@
     </row>
     <row r="119" s="1" customFormat="1" spans="1:3">
       <c r="A119" s="1">
-        <v>24060</v>
+        <v>23060</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>54</v>
@@ -3066,11 +3066,11 @@
     </row>
     <row r="120" s="1" customFormat="1" spans="1:3">
       <c r="A120" s="1">
-        <v>24070</v>
+        <v>23070</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>55</v>
@@ -3078,11 +3078,11 @@
     </row>
     <row r="121" s="1" customFormat="1" spans="1:3">
       <c r="A121" s="1">
-        <v>24080</v>
+        <v>23080</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>98</v>
@@ -3090,11 +3090,11 @@
     </row>
     <row r="122" s="1" customFormat="1" spans="1:3">
       <c r="A122" s="1">
-        <v>24090</v>
+        <v>23090</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>99</v>
@@ -3102,11 +3102,11 @@
     </row>
     <row r="123" s="1" customFormat="1" spans="1:3">
       <c r="A123" s="1">
-        <v>24100</v>
+        <v>23100</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>96</v>
@@ -3114,11 +3114,11 @@
     </row>
     <row r="125" s="1" customFormat="1" spans="1:3">
       <c r="A125" s="1">
-        <v>25010</v>
+        <v>24010</v>
       </c>
       <c r="B125" s="1">
         <f>INT(A125/1000)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>52</v>
@@ -3126,11 +3126,11 @@
     </row>
     <row r="126" s="1" customFormat="1" spans="1:3">
       <c r="A126" s="1">
-        <v>25020</v>
+        <v>24020</v>
       </c>
       <c r="B126" s="1">
         <f>INT(A126/1000)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>53</v>
@@ -3138,11 +3138,11 @@
     </row>
     <row r="127" s="1" customFormat="1" spans="1:3">
       <c r="A127" s="1">
-        <v>25030</v>
+        <v>24030</v>
       </c>
       <c r="B127" s="1">
         <f>INT(A127/1000)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>54</v>
@@ -3150,11 +3150,11 @@
     </row>
     <row r="128" s="1" customFormat="1" spans="1:3">
       <c r="A128" s="1">
-        <v>25040</v>
+        <v>24040</v>
       </c>
       <c r="B128" s="1">
         <f>INT(A128/1000)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>55</v>
@@ -3162,11 +3162,11 @@
     </row>
     <row r="130" s="1" customFormat="1" spans="1:6">
       <c r="A130" s="1">
-        <v>31010</v>
+        <v>30010</v>
       </c>
       <c r="B130" s="1">
-        <f>INT(A130/1000)</f>
-        <v>31</v>
+        <f t="shared" ref="B130:B135" si="6">INT(A130/1000)</f>
+        <v>30</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>37</v>
@@ -3180,11 +3180,11 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>31020</v>
+        <v>30020</v>
       </c>
       <c r="B131" s="1">
-        <f>INT(A131/1000)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>49</v>
@@ -3192,11 +3192,11 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>31030</v>
+        <v>30030</v>
       </c>
       <c r="B132" s="1">
-        <f>INT(A132/1000)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>63</v>
@@ -3204,11 +3204,11 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>31040</v>
+        <v>30040</v>
       </c>
       <c r="B133" s="1">
-        <f>INT(A133/1000)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>51</v>
@@ -3216,11 +3216,11 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>31050</v>
+        <v>30050</v>
       </c>
       <c r="B134" s="1">
-        <f>INT(A134/1000)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>54</v>
@@ -3228,11 +3228,11 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>31060</v>
+        <v>30060</v>
       </c>
       <c r="B135" s="1">
-        <f>INT(A135/1000)</f>
-        <v>31</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>55</v>
@@ -3240,11 +3240,11 @@
     </row>
     <row r="137" s="1" customFormat="1" spans="1:6">
       <c r="A137" s="1">
-        <v>32010</v>
+        <v>31010</v>
       </c>
       <c r="B137" s="1">
-        <f t="shared" ref="B136:B154" si="6">INT(A137/1000)</f>
-        <v>32</v>
+        <f t="shared" ref="B136:B154" si="7">INT(A137/1000)</f>
+        <v>31</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>100</v>
@@ -3258,11 +3258,11 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>32020</v>
+        <v>31020</v>
       </c>
       <c r="B138" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>103</v>
@@ -3276,11 +3276,11 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>32030</v>
+        <v>31030</v>
       </c>
       <c r="B139" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>105</v>
@@ -3294,11 +3294,11 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>32040</v>
+        <v>31040</v>
       </c>
       <c r="B140" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>106</v>
@@ -3312,11 +3312,11 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>32050</v>
+        <v>31050</v>
       </c>
       <c r="B141" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>37</v>
@@ -3330,11 +3330,11 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>32060</v>
+        <v>31060</v>
       </c>
       <c r="B142" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>108</v>
@@ -3342,11 +3342,11 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>32070</v>
+        <v>31070</v>
       </c>
       <c r="B143" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>49</v>
@@ -3354,11 +3354,11 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>32080</v>
+        <v>31080</v>
       </c>
       <c r="B144" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>109</v>
@@ -3366,11 +3366,11 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>32090</v>
+        <v>31090</v>
       </c>
       <c r="B145" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>51</v>
@@ -3378,11 +3378,11 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="B146" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>52</v>
@@ -3390,11 +3390,11 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>32110</v>
+        <v>31110</v>
       </c>
       <c r="B147" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>54</v>
@@ -3402,11 +3402,11 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>32120</v>
+        <v>31120</v>
       </c>
       <c r="B148" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>110</v>
@@ -3414,11 +3414,11 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>32130</v>
+        <v>31130</v>
       </c>
       <c r="B149" s="1">
-        <f>INT(A149/1000)</f>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>111</v>
@@ -3426,11 +3426,11 @@
     </row>
     <row r="151" s="1" customFormat="1" spans="1:3">
       <c r="A151" s="1">
-        <v>33010</v>
+        <v>32010</v>
       </c>
       <c r="B151" s="1">
-        <f>INT(A151/1000)</f>
-        <v>33</v>
+        <f t="shared" ref="B151:B157" si="8">INT(A151/1000)</f>
+        <v>32</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>112</v>
@@ -3438,11 +3438,11 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>33020</v>
+        <v>32020</v>
       </c>
       <c r="B152" s="1">
-        <f>INT(A152/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>61</v>
@@ -3450,11 +3450,11 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>33030</v>
+        <v>32030</v>
       </c>
       <c r="B153" s="1">
-        <f>INT(A153/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>62</v>
@@ -3462,11 +3462,11 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>33040</v>
+        <v>32040</v>
       </c>
       <c r="B154" s="1">
-        <f>INT(A154/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>63</v>
@@ -3474,11 +3474,11 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>33050</v>
+        <v>32050</v>
       </c>
       <c r="B155" s="1">
-        <f>INT(A155/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>51</v>
@@ -3486,11 +3486,11 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>33060</v>
+        <v>32060</v>
       </c>
       <c r="B156" s="1">
-        <f>INT(A156/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>52</v>
@@ -3498,11 +3498,11 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>33070</v>
+        <v>32070</v>
       </c>
       <c r="B157" s="1">
-        <f>INT(A157/1000)</f>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>113</v>
@@ -3510,11 +3510,11 @@
     </row>
     <row r="159" s="1" customFormat="1" spans="1:3">
       <c r="A159" s="1">
-        <v>34010</v>
+        <v>33010</v>
       </c>
       <c r="B159" s="1">
-        <f>INT(A159/1000)</f>
-        <v>34</v>
+        <f t="shared" ref="B159:B165" si="9">INT(A159/1000)</f>
+        <v>33</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>49</v>
@@ -3522,11 +3522,11 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>34020</v>
+        <v>33020</v>
       </c>
       <c r="B160" s="1">
-        <f>INT(A160/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>51</v>
@@ -3534,11 +3534,11 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>34030</v>
+        <v>33030</v>
       </c>
       <c r="B161" s="1">
-        <f>INT(A161/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>52</v>
@@ -3546,11 +3546,11 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>34040</v>
+        <v>33040</v>
       </c>
       <c r="B162" s="1">
-        <f>INT(A162/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>54</v>
@@ -3558,11 +3558,11 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>34050</v>
+        <v>33050</v>
       </c>
       <c r="B163" s="1">
-        <f>INT(A163/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>55</v>
@@ -3570,18 +3570,18 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
-        <v>34060</v>
+        <v>33060</v>
       </c>
       <c r="B164" s="1">
-        <f>INT(A164/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D164" s="1">
         <f>A163</f>
-        <v>34050</v>
+        <v>33050</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>114</v>
@@ -3589,11 +3589,11 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>34070</v>
+        <v>33070</v>
       </c>
       <c r="B165" s="1">
-        <f>INT(A165/1000)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>115</v>
@@ -3601,11 +3601,11 @@
     </row>
     <row r="167" s="1" customFormat="1" spans="1:3">
       <c r="A167" s="1">
-        <v>35010</v>
+        <v>34010</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" ref="B166:B178" si="7">INT(A167/1000)</f>
-        <v>35</v>
+        <f t="shared" ref="B166:B178" si="10">INT(A167/1000)</f>
+        <v>34</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>116</v>
@@ -3613,11 +3613,11 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>35020</v>
+        <v>34020</v>
       </c>
       <c r="B168" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>51</v>
@@ -3625,11 +3625,11 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>35030</v>
+        <v>34030</v>
       </c>
       <c r="B169" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>52</v>
@@ -3637,11 +3637,11 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>35040</v>
+        <v>34040</v>
       </c>
       <c r="B170" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>53</v>
@@ -3649,11 +3649,11 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>35050</v>
+        <v>34050</v>
       </c>
       <c r="B171" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>54</v>
@@ -3661,18 +3661,18 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1">
-        <v>35060</v>
+        <v>34060</v>
       </c>
       <c r="B172" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D172" s="1">
         <f>A171</f>
-        <v>35050</v>
+        <v>34050</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>117</v>
@@ -3680,11 +3680,11 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>35070</v>
+        <v>34070</v>
       </c>
       <c r="B173" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>55</v>
@@ -3692,18 +3692,18 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1">
-        <v>35080</v>
+        <v>34080</v>
       </c>
       <c r="B174" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D174" s="1">
         <f>A173</f>
-        <v>35070</v>
+        <v>34070</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>117</v>
@@ -3711,11 +3711,11 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>35090</v>
+        <v>34090</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -3723,11 +3723,11 @@
     </row>
     <row r="177" s="1" customFormat="1" spans="1:3">
       <c r="A177" s="1">
-        <v>41010</v>
+        <v>40010</v>
       </c>
       <c r="B177" s="1">
         <f>INT(A177/1000)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>51</v>
@@ -3735,11 +3735,11 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>41020</v>
+        <v>40020</v>
       </c>
       <c r="B178" s="1">
         <f>INT(A178/1000)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>52</v>
@@ -3747,11 +3747,11 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>41030</v>
+        <v>40030</v>
       </c>
       <c r="B179" s="1">
         <f>INT(A179/1000)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>53</v>
@@ -3759,11 +3759,11 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>41040</v>
+        <v>40040</v>
       </c>
       <c r="B180" s="1">
         <f>INT(A180/1000)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>54</v>
@@ -3771,11 +3771,11 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>41050</v>
+        <v>40050</v>
       </c>
       <c r="B181" s="1">
         <f>INT(A181/1000)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>55</v>
@@ -3783,11 +3783,11 @@
     </row>
     <row r="183" s="1" customFormat="1" spans="1:3">
       <c r="A183" s="1">
-        <v>42010</v>
+        <v>41010</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" ref="B182:B200" si="8">INT(A183/1000)</f>
-        <v>42</v>
+        <f t="shared" ref="B182:B200" si="11">INT(A183/1000)</f>
+        <v>41</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>52</v>
@@ -3795,11 +3795,11 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>42020</v>
+        <v>41020</v>
       </c>
       <c r="B184" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>53</v>
@@ -3807,11 +3807,11 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>42030</v>
+        <v>41030</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>54</v>
@@ -3819,11 +3819,11 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>42040</v>
+        <v>41040</v>
       </c>
       <c r="B186" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>55</v>
@@ -3831,18 +3831,18 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1">
-        <v>42050</v>
+        <v>41050</v>
       </c>
       <c r="B187" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D187" s="1">
         <f>A186</f>
-        <v>42040</v>
+        <v>41040</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>119</v>
@@ -3850,18 +3850,18 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1">
-        <v>42060</v>
+        <v>41060</v>
       </c>
       <c r="B188" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D188" s="1">
         <f>A186</f>
-        <v>42040</v>
+        <v>41040</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>120</v>
@@ -3869,18 +3869,18 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1">
-        <v>42070</v>
+        <v>41070</v>
       </c>
       <c r="B189" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D189" s="1">
         <f>A186</f>
-        <v>42040</v>
+        <v>41040</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>121</v>
@@ -3888,11 +3888,11 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>42080</v>
+        <v>41080</v>
       </c>
       <c r="B190" s="1">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>122</v>
@@ -3900,11 +3900,11 @@
     </row>
     <row r="192" s="1" customFormat="1" spans="1:3">
       <c r="A192" s="1">
-        <v>43010</v>
+        <v>42010</v>
       </c>
       <c r="B192" s="1">
         <f>INT(A192/1000)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>123</v>
@@ -3912,11 +3912,11 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>43020</v>
+        <v>42020</v>
       </c>
       <c r="B193" s="1">
         <f>INT(A193/1000)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>52</v>
@@ -3924,11 +3924,11 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>43030</v>
+        <v>42030</v>
       </c>
       <c r="B194" s="1">
         <f>INT(A194/1000)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>53</v>
@@ -3936,11 +3936,11 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>43040</v>
+        <v>42040</v>
       </c>
       <c r="B195" s="1">
         <f>INT(A195/1000)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>54</v>
@@ -3948,11 +3948,11 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>43050</v>
+        <v>42050</v>
       </c>
       <c r="B196" s="1">
         <f>INT(A196/1000)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>55</v>
@@ -3960,11 +3960,11 @@
     </row>
     <row r="198" s="1" customFormat="1" spans="1:3">
       <c r="A198" s="1">
-        <v>44010</v>
+        <v>43010</v>
       </c>
       <c r="B198" s="1">
         <f>INT(A198/1000)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>122</v>
@@ -3972,11 +3972,11 @@
     </row>
     <row r="200" s="1" customFormat="1" spans="1:3">
       <c r="A200" s="1">
-        <v>45010</v>
+        <v>44010</v>
       </c>
       <c r="B200" s="1">
         <f>INT(A200/1000)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>52</v>
@@ -3984,11 +3984,11 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45020</v>
+        <v>44020</v>
       </c>
       <c r="B201" s="1">
         <f>INT(A201/1000)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>54</v>
@@ -3996,11 +3996,11 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45030</v>
+        <v>44030</v>
       </c>
       <c r="B202" s="1">
         <f>INT(A202/1000)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>55</v>
@@ -4008,11 +4008,11 @@
     </row>
     <row r="204" s="1" customFormat="1" spans="1:3">
       <c r="A204" s="1">
-        <v>46010</v>
+        <v>45010</v>
       </c>
       <c r="B204" s="1">
-        <f>INT(A204/1000)</f>
-        <v>46</v>
+        <f t="shared" ref="B204:B212" si="12">INT(A204/1000)</f>
+        <v>45</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>124</v>
@@ -4020,11 +4020,11 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>46020</v>
+        <v>45020</v>
       </c>
       <c r="B205" s="1">
-        <f>INT(A205/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>125</v>
@@ -4032,11 +4032,11 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>46030</v>
+        <v>45030</v>
       </c>
       <c r="B206" s="1">
-        <f>INT(A206/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>126</v>
@@ -4044,11 +4044,11 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>46040</v>
+        <v>45040</v>
       </c>
       <c r="B207" s="1">
-        <f>INT(A207/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>127</v>
@@ -4056,11 +4056,11 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>46050</v>
+        <v>45050</v>
       </c>
       <c r="B208" s="1">
-        <f>INT(A208/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>128</v>
@@ -4068,11 +4068,11 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>46060</v>
+        <v>45060</v>
       </c>
       <c r="B209" s="1">
-        <f>INT(A209/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>52</v>
@@ -4080,11 +4080,11 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>46070</v>
+        <v>45070</v>
       </c>
       <c r="B210" s="1">
-        <f>INT(A210/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>53</v>
@@ -4092,11 +4092,11 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>46080</v>
+        <v>45080</v>
       </c>
       <c r="B211" s="1">
-        <f>INT(A211/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>54</v>
@@ -4104,11 +4104,11 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>46090</v>
+        <v>45090</v>
       </c>
       <c r="B212" s="1">
-        <f>INT(A212/1000)</f>
-        <v>46</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>55</v>
@@ -4116,11 +4116,11 @@
     </row>
     <row r="214" s="1" customFormat="1" spans="1:3">
       <c r="A214" s="1">
-        <v>51010</v>
+        <v>50010</v>
       </c>
       <c r="B214" s="1">
-        <f>INT(A214/1000)</f>
-        <v>51</v>
+        <f t="shared" ref="B214:B219" si="13">INT(A214/1000)</f>
+        <v>50</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>129</v>
@@ -4128,11 +4128,11 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>51020</v>
+        <v>50020</v>
       </c>
       <c r="B215" s="1">
-        <f>INT(A215/1000)</f>
-        <v>51</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>51</v>
@@ -4140,11 +4140,11 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>51030</v>
+        <v>50030</v>
       </c>
       <c r="B216" s="1">
-        <f>INT(A216/1000)</f>
-        <v>51</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>52</v>
@@ -4152,11 +4152,11 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>51040</v>
+        <v>50040</v>
       </c>
       <c r="B217" s="1">
-        <f>INT(A217/1000)</f>
-        <v>51</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>53</v>
@@ -4164,11 +4164,11 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>51050</v>
+        <v>50050</v>
       </c>
       <c r="B218" s="1">
-        <f>INT(A218/1000)</f>
-        <v>51</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>54</v>
@@ -4176,11 +4176,11 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>51060</v>
+        <v>50060</v>
       </c>
       <c r="B219" s="1">
-        <f>INT(A219/1000)</f>
-        <v>51</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>55</v>
@@ -4188,11 +4188,11 @@
     </row>
     <row r="221" s="1" customFormat="1" spans="1:3">
       <c r="A221" s="1">
-        <v>52010</v>
+        <v>51010</v>
       </c>
       <c r="B221" s="1">
-        <f t="shared" ref="B220:B238" si="9">INT(A221/1000)</f>
-        <v>52</v>
+        <f t="shared" ref="B220:B238" si="14">INT(A221/1000)</f>
+        <v>51</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>130</v>
@@ -4200,11 +4200,11 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>52020</v>
+        <v>51020</v>
       </c>
       <c r="B222" s="1">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>51</v>
@@ -4212,11 +4212,11 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>52030</v>
+        <v>51030</v>
       </c>
       <c r="B223" s="1">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>52</v>
@@ -4224,11 +4224,11 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>52040</v>
+        <v>51040</v>
       </c>
       <c r="B224" s="1">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>53</v>
@@ -4236,11 +4236,11 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>52050</v>
+        <v>51050</v>
       </c>
       <c r="B225" s="1">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>54</v>
@@ -4248,11 +4248,11 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>52060</v>
+        <v>51060</v>
       </c>
       <c r="B226" s="1">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="14"/>
+        <v>51</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>55</v>
@@ -4260,11 +4260,11 @@
     </row>
     <row r="228" s="1" customFormat="1" spans="1:3">
       <c r="A228" s="1">
-        <v>53010</v>
+        <v>52010</v>
       </c>
       <c r="B228" s="1">
         <f>INT(A228/1000)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>52</v>
@@ -4272,11 +4272,11 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>53020</v>
+        <v>52020</v>
       </c>
       <c r="B229" s="1">
         <f>INT(A229/1000)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>53</v>
@@ -4284,11 +4284,11 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>53030</v>
+        <v>52030</v>
       </c>
       <c r="B230" s="1">
         <f>INT(A230/1000)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>54</v>
@@ -4296,11 +4296,11 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>53040</v>
+        <v>52040</v>
       </c>
       <c r="B231" s="1">
         <f>INT(A231/1000)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>55</v>
@@ -4308,11 +4308,11 @@
     </row>
     <row r="233" s="1" customFormat="1" spans="1:3">
       <c r="A233" s="1">
-        <v>54010</v>
+        <v>53010</v>
       </c>
       <c r="B233" s="1">
-        <f>INT(A233/1000)</f>
-        <v>54</v>
+        <f t="shared" ref="B233:B239" si="15">INT(A233/1000)</f>
+        <v>53</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>50</v>
@@ -4320,11 +4320,11 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>54020</v>
+        <v>53020</v>
       </c>
       <c r="B234" s="1">
-        <f>INT(A234/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>51</v>
@@ -4332,11 +4332,11 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>54030</v>
+        <v>53030</v>
       </c>
       <c r="B235" s="1">
-        <f>INT(A235/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>52</v>
@@ -4344,11 +4344,11 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>54040</v>
+        <v>53040</v>
       </c>
       <c r="B236" s="1">
-        <f>INT(A236/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>65</v>
@@ -4356,11 +4356,11 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>54050</v>
+        <v>53050</v>
       </c>
       <c r="B237" s="1">
-        <f>INT(A237/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>53</v>
@@ -4368,11 +4368,11 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>54060</v>
+        <v>53060</v>
       </c>
       <c r="B238" s="1">
-        <f>INT(A238/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>54</v>
@@ -4380,11 +4380,11 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>54070</v>
+        <v>53070</v>
       </c>
       <c r="B239" s="1">
-        <f>INT(A239/1000)</f>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>55</v>
@@ -4392,11 +4392,11 @@
     </row>
     <row r="241" s="1" customFormat="1" spans="1:3">
       <c r="A241" s="1">
-        <v>55010</v>
+        <v>54010</v>
       </c>
       <c r="B241" s="1">
         <f>INT(A241/1000)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>52</v>
@@ -4404,11 +4404,11 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>55020</v>
+        <v>54020</v>
       </c>
       <c r="B242" s="1">
         <f>INT(A242/1000)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>55</v>
@@ -4416,11 +4416,11 @@
     </row>
     <row r="244" s="1" customFormat="1" spans="1:3">
       <c r="A244" s="1">
-        <v>61010</v>
+        <v>60010</v>
       </c>
       <c r="B244" s="1">
-        <f>INT(A244/1000)</f>
-        <v>61</v>
+        <f t="shared" ref="B244:B250" si="16">INT(A244/1000)</f>
+        <v>60</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>112</v>
@@ -4428,11 +4428,11 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>61020</v>
+        <v>60020</v>
       </c>
       <c r="B245" s="1">
-        <f>INT(A245/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>109</v>
@@ -4440,11 +4440,11 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>61030</v>
+        <v>60030</v>
       </c>
       <c r="B246" s="1">
-        <f>INT(A246/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>51</v>
@@ -4452,11 +4452,11 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>61040</v>
+        <v>60040</v>
       </c>
       <c r="B247" s="1">
-        <f>INT(A247/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>52</v>
@@ -4464,11 +4464,11 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>61050</v>
+        <v>60050</v>
       </c>
       <c r="B248" s="1">
-        <f>INT(A248/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>53</v>
@@ -4476,11 +4476,11 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>61060</v>
+        <v>60060</v>
       </c>
       <c r="B249" s="1">
-        <f>INT(A249/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>54</v>
@@ -4488,11 +4488,11 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>61070</v>
+        <v>60070</v>
       </c>
       <c r="B250" s="1">
-        <f>INT(A250/1000)</f>
-        <v>61</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>55</v>
@@ -4500,11 +4500,11 @@
     </row>
     <row r="252" s="1" customFormat="1" spans="1:3">
       <c r="A252" s="1">
-        <v>62010</v>
+        <v>61010</v>
       </c>
       <c r="B252" s="1">
         <f>INT(A252/1000)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>51</v>
@@ -4512,11 +4512,11 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>62020</v>
+        <v>61020</v>
       </c>
       <c r="B253" s="1">
         <f>INT(A253/1000)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>52</v>
@@ -4524,11 +4524,11 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>62030</v>
+        <v>61030</v>
       </c>
       <c r="B254" s="1">
         <f>INT(A254/1000)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>53</v>
@@ -4536,11 +4536,11 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>62040</v>
+        <v>61040</v>
       </c>
       <c r="B255" s="1">
         <f>INT(A255/1000)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>54</v>
@@ -4548,11 +4548,11 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>62050</v>
+        <v>61050</v>
       </c>
       <c r="B256" s="1">
         <f>INT(A256/1000)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>55</v>
@@ -4560,11 +4560,11 @@
     </row>
     <row r="258" s="1" customFormat="1" spans="1:3">
       <c r="A258" s="1">
-        <v>63010</v>
+        <v>62010</v>
       </c>
       <c r="B258" s="1">
         <f>INT(A258/1000)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>112</v>
@@ -4572,11 +4572,11 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>63020</v>
+        <v>62020</v>
       </c>
       <c r="B259" s="1">
         <f>INT(A259/1000)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>52</v>
@@ -4584,11 +4584,11 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>63030</v>
+        <v>62030</v>
       </c>
       <c r="B260" s="1">
         <f>INT(A260/1000)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>54</v>
@@ -4596,11 +4596,11 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>63040</v>
+        <v>62040</v>
       </c>
       <c r="B261" s="1">
         <f>INT(A261/1000)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>55</v>
@@ -4608,11 +4608,11 @@
     </row>
     <row r="263" s="1" customFormat="1" spans="1:3">
       <c r="A263" s="1">
-        <v>64010</v>
+        <v>63010</v>
       </c>
       <c r="B263" s="1">
-        <f>INT(A263/1000)</f>
-        <v>64</v>
+        <f t="shared" ref="B263:B268" si="17">INT(A263/1000)</f>
+        <v>63</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>131</v>
@@ -4620,11 +4620,11 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>64020</v>
+        <v>63020</v>
       </c>
       <c r="B264" s="1">
-        <f>INT(A264/1000)</f>
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>74</v>
@@ -4632,11 +4632,11 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>64030</v>
+        <v>63030</v>
       </c>
       <c r="B265" s="1">
-        <f>INT(A265/1000)</f>
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>51</v>
@@ -4644,11 +4644,11 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>64040</v>
+        <v>63040</v>
       </c>
       <c r="B266" s="1">
-        <f>INT(A266/1000)</f>
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>52</v>
@@ -4656,11 +4656,11 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>64050</v>
+        <v>63050</v>
       </c>
       <c r="B267" s="1">
-        <f>INT(A267/1000)</f>
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>54</v>
@@ -4668,11 +4668,11 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>64060</v>
+        <v>63060</v>
       </c>
       <c r="B268" s="1">
-        <f>INT(A268/1000)</f>
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>55</v>
@@ -4680,11 +4680,11 @@
     </row>
     <row r="270" s="1" customFormat="1" spans="1:3">
       <c r="A270" s="1">
-        <v>65010</v>
+        <v>64010</v>
       </c>
       <c r="B270" s="1">
-        <f t="shared" ref="B269:B280" si="10">INT(A270/1000)</f>
-        <v>65</v>
+        <f t="shared" ref="B269:B280" si="18">INT(A270/1000)</f>
+        <v>64</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>132</v>
@@ -4692,11 +4692,11 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>65020</v>
+        <v>64020</v>
       </c>
       <c r="B271" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>52</v>
@@ -4704,11 +4704,11 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>65030</v>
+        <v>64030</v>
       </c>
       <c r="B272" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>53</v>
@@ -4716,11 +4716,11 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>65040</v>
+        <v>64040</v>
       </c>
       <c r="B273" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>54</v>
@@ -4728,11 +4728,11 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>65050</v>
+        <v>64050</v>
       </c>
       <c r="B274" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>55</v>
@@ -4740,11 +4740,11 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>65060</v>
+        <v>64060</v>
       </c>
       <c r="B275" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>133</v>
@@ -4752,11 +4752,11 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>65070</v>
+        <v>64070</v>
       </c>
       <c r="B276" s="1">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="18"/>
+        <v>64</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>134</v>
@@ -4764,11 +4764,11 @@
     </row>
     <row r="278" s="1" customFormat="1" spans="1:3">
       <c r="A278" s="1">
-        <v>66010</v>
+        <v>65010</v>
       </c>
       <c r="B278" s="1">
-        <f>INT(A278/1000)</f>
-        <v>66</v>
+        <f t="shared" ref="B278:B286" si="19">INT(A278/1000)</f>
+        <v>65</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>134</v>
@@ -4776,11 +4776,11 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>66020</v>
+        <v>65020</v>
       </c>
       <c r="B279" s="1">
-        <f>INT(A279/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>112</v>
@@ -4788,11 +4788,11 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>66030</v>
+        <v>65030</v>
       </c>
       <c r="B280" s="1">
-        <f>INT(A280/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>74</v>
@@ -4800,11 +4800,11 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>66040</v>
+        <v>65040</v>
       </c>
       <c r="B281" s="1">
-        <f>INT(A281/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>130</v>
@@ -4812,11 +4812,11 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>66050</v>
+        <v>65050</v>
       </c>
       <c r="B282" s="1">
-        <f>INT(A282/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>51</v>
@@ -4824,11 +4824,11 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>66060</v>
+        <v>65060</v>
       </c>
       <c r="B283" s="1">
-        <f>INT(A283/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>52</v>
@@ -4836,11 +4836,11 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>66070</v>
+        <v>65070</v>
       </c>
       <c r="B284" s="1">
-        <f>INT(A284/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>53</v>
@@ -4848,11 +4848,11 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>66080</v>
+        <v>65080</v>
       </c>
       <c r="B285" s="1">
-        <f>INT(A285/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>54</v>
@@ -4860,11 +4860,11 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>66090</v>
+        <v>65090</v>
       </c>
       <c r="B286" s="1">
-        <f>INT(A286/1000)</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>55</v>
@@ -4872,11 +4872,11 @@
     </row>
     <row r="288" s="1" customFormat="1" spans="1:3">
       <c r="A288" s="1">
-        <v>71010</v>
+        <v>70010</v>
       </c>
       <c r="B288" s="1">
-        <f>INT(A288/1000)</f>
-        <v>71</v>
+        <f t="shared" ref="B288:B298" si="20">INT(A288/1000)</f>
+        <v>70</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>135</v>
@@ -4884,11 +4884,11 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>71020</v>
+        <v>70020</v>
       </c>
       <c r="B289" s="1">
-        <f>INT(A289/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>49</v>
@@ -4896,11 +4896,11 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>71030</v>
+        <v>70030</v>
       </c>
       <c r="B290" s="1">
-        <f>INT(A290/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>62</v>
@@ -4908,11 +4908,11 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>71040</v>
+        <v>70040</v>
       </c>
       <c r="B291" s="1">
-        <f>INT(A291/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>129</v>
@@ -4920,11 +4920,11 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>71050</v>
+        <v>70050</v>
       </c>
       <c r="B292" s="1">
-        <f>INT(A292/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>51</v>
@@ -4932,11 +4932,11 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>71060</v>
+        <v>70060</v>
       </c>
       <c r="B293" s="1">
-        <f>INT(A293/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>82</v>
@@ -4944,11 +4944,11 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>71070</v>
+        <v>70070</v>
       </c>
       <c r="B294" s="1">
-        <f>INT(A294/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>52</v>
@@ -4956,11 +4956,11 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>71080</v>
+        <v>70080</v>
       </c>
       <c r="B295" s="1">
-        <f>INT(A295/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>53</v>
@@ -4968,11 +4968,11 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>71090</v>
+        <v>70090</v>
       </c>
       <c r="B296" s="1">
-        <f>INT(A296/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>54</v>
@@ -4980,11 +4980,11 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>71100</v>
+        <v>70100</v>
       </c>
       <c r="B297" s="1">
-        <f>INT(A297/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>55</v>
@@ -4992,11 +4992,11 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>71110</v>
+        <v>70110</v>
       </c>
       <c r="B298" s="1">
-        <f>INT(A298/1000)</f>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>70</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>122</v>
@@ -5004,11 +5004,11 @@
     </row>
     <row r="300" s="1" customFormat="1" spans="1:3">
       <c r="A300" s="1">
-        <v>72010</v>
+        <v>71010</v>
       </c>
       <c r="B300" s="1">
-        <f t="shared" ref="B300:B317" si="11">INT(A300/1000)</f>
-        <v>72</v>
+        <f t="shared" ref="B300:B317" si="21">INT(A300/1000)</f>
+        <v>71</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>136</v>
@@ -5016,11 +5016,11 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>72020</v>
+        <v>71020</v>
       </c>
       <c r="B301" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>51</v>
@@ -5028,11 +5028,11 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>72030</v>
+        <v>71030</v>
       </c>
       <c r="B302" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>52</v>
@@ -5040,11 +5040,11 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>72040</v>
+        <v>71040</v>
       </c>
       <c r="B303" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>65</v>
@@ -5052,11 +5052,11 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>72050</v>
+        <v>71050</v>
       </c>
       <c r="B304" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>53</v>
@@ -5064,11 +5064,11 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>72060</v>
+        <v>71060</v>
       </c>
       <c r="B305" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>54</v>
@@ -5076,11 +5076,11 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>72070</v>
+        <v>71070</v>
       </c>
       <c r="B306" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>55</v>
@@ -5088,11 +5088,11 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>72080</v>
+        <v>71080</v>
       </c>
       <c r="B307" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>137</v>
@@ -5100,11 +5100,11 @@
     </row>
     <row r="309" s="1" customFormat="1" spans="1:3">
       <c r="A309" s="1">
-        <v>73010</v>
+        <v>72010</v>
       </c>
       <c r="B309" s="1">
         <f>INT(A309/1000)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>52</v>
@@ -5112,11 +5112,11 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>73020</v>
+        <v>72020</v>
       </c>
       <c r="B310" s="1">
         <f>INT(A310/1000)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>53</v>
@@ -5124,11 +5124,11 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>73030</v>
+        <v>72030</v>
       </c>
       <c r="B311" s="1">
         <f>INT(A311/1000)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>54</v>
@@ -5136,11 +5136,11 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>73040</v>
+        <v>72040</v>
       </c>
       <c r="B312" s="1">
         <f>INT(A312/1000)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>55</v>
@@ -5148,11 +5148,11 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>73050</v>
+        <v>72050</v>
       </c>
       <c r="B313" s="1">
         <f>INT(A313/1000)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>137</v>
@@ -5160,11 +5160,11 @@
     </row>
     <row r="315" s="1" customFormat="1" spans="1:3">
       <c r="A315" s="1">
-        <v>74010</v>
+        <v>73010</v>
       </c>
       <c r="B315" s="1">
         <f>INT(A315/1000)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>112</v>
@@ -5172,11 +5172,11 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>74020</v>
+        <v>73020</v>
       </c>
       <c r="B316" s="1">
         <f>INT(A316/1000)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>54</v>
@@ -5184,11 +5184,11 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>74030</v>
+        <v>73030</v>
       </c>
       <c r="B317" s="1">
         <f>INT(A317/1000)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>55</v>
@@ -5196,11 +5196,11 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>74040</v>
+        <v>73040</v>
       </c>
       <c r="B318" s="1">
         <f>INT(A318/1000)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>137</v>
@@ -5208,11 +5208,11 @@
     </row>
     <row r="320" s="1" customFormat="1" spans="1:3">
       <c r="A320" s="1">
-        <v>75010</v>
+        <v>74010</v>
       </c>
       <c r="B320" s="1">
         <f>INT(A320/1000)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>51</v>
@@ -5220,11 +5220,11 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>75020</v>
+        <v>74020</v>
       </c>
       <c r="B321" s="1">
         <f>INT(A321/1000)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>55</v>
@@ -5232,11 +5232,11 @@
     </row>
     <row r="323" s="1" customFormat="1" spans="1:3">
       <c r="A323" s="1">
-        <v>76010</v>
+        <v>75010</v>
       </c>
       <c r="B323" s="1">
         <f>INT(A323/1000)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>52</v>
@@ -5244,11 +5244,11 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>76020</v>
+        <v>75020</v>
       </c>
       <c r="B324" s="1">
         <f>INT(A324/1000)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>55</v>
@@ -5256,11 +5256,11 @@
     </row>
     <row r="326" s="1" customFormat="1" spans="1:3">
       <c r="A326" s="1">
-        <v>81010</v>
+        <v>80010</v>
       </c>
       <c r="B326" s="1">
-        <f>INT(A326/1000)</f>
-        <v>81</v>
+        <f t="shared" ref="B326:B334" si="22">INT(A326/1000)</f>
+        <v>80</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>138</v>
@@ -5268,11 +5268,11 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>81020</v>
+        <v>80020</v>
       </c>
       <c r="B327" s="1">
-        <f>INT(A327/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>139</v>
@@ -5280,11 +5280,11 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>81030</v>
+        <v>80030</v>
       </c>
       <c r="B328" s="1">
-        <f>INT(A328/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>57</v>
@@ -5292,11 +5292,11 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>81040</v>
+        <v>80040</v>
       </c>
       <c r="B329" s="1">
-        <f>INT(A329/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>112</v>
@@ -5304,11 +5304,11 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>81050</v>
+        <v>80050</v>
       </c>
       <c r="B330" s="1">
-        <f>INT(A330/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>51</v>
@@ -5316,11 +5316,11 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>81060</v>
+        <v>80060</v>
       </c>
       <c r="B331" s="1">
-        <f>INT(A331/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>52</v>
@@ -5328,11 +5328,11 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>81070</v>
+        <v>80070</v>
       </c>
       <c r="B332" s="1">
-        <f>INT(A332/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>53</v>
@@ -5340,11 +5340,11 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>81080</v>
+        <v>80080</v>
       </c>
       <c r="B333" s="1">
-        <f>INT(A333/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>54</v>
@@ -5352,11 +5352,11 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>81090</v>
+        <v>80090</v>
       </c>
       <c r="B334" s="1">
-        <f>INT(A334/1000)</f>
-        <v>81</v>
+        <f t="shared" si="22"/>
+        <v>80</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>55</v>
@@ -5364,11 +5364,11 @@
     </row>
     <row r="336" s="1" customFormat="1" spans="1:3">
       <c r="A336" s="1">
-        <v>82010</v>
+        <v>81010</v>
       </c>
       <c r="B336" s="1">
-        <f t="shared" ref="B335:B353" si="12">INT(A336/1000)</f>
-        <v>82</v>
+        <f t="shared" ref="B335:B353" si="23">INT(A336/1000)</f>
+        <v>81</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>140</v>
@@ -5376,11 +5376,11 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>82020</v>
+        <v>81020</v>
       </c>
       <c r="B337" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>141</v>
@@ -5388,11 +5388,11 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>82030</v>
+        <v>81030</v>
       </c>
       <c r="B338" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>142</v>
@@ -5400,11 +5400,11 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>82040</v>
+        <v>81040</v>
       </c>
       <c r="B339" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>143</v>
@@ -5412,11 +5412,11 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>82050</v>
+        <v>81050</v>
       </c>
       <c r="B340" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>112</v>
@@ -5424,11 +5424,11 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>82060</v>
+        <v>81060</v>
       </c>
       <c r="B341" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>74</v>
@@ -5436,11 +5436,11 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>82070</v>
+        <v>81070</v>
       </c>
       <c r="B342" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>51</v>
@@ -5448,11 +5448,11 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>82080</v>
+        <v>81080</v>
       </c>
       <c r="B343" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>82</v>
@@ -5460,11 +5460,11 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>82090</v>
+        <v>81090</v>
       </c>
       <c r="B344" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>52</v>
@@ -5472,11 +5472,11 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>82100</v>
+        <v>81100</v>
       </c>
       <c r="B345" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>53</v>
@@ -5484,11 +5484,11 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>82110</v>
+        <v>81110</v>
       </c>
       <c r="B346" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>54</v>
@@ -5496,11 +5496,11 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>82120</v>
+        <v>81120</v>
       </c>
       <c r="B347" s="1">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>55</v>
@@ -5508,11 +5508,11 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>82130</v>
+        <v>81130</v>
       </c>
       <c r="B348" s="1">
-        <f>INT(A348/1000)</f>
-        <v>82</v>
+        <f t="shared" si="23"/>
+        <v>81</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>144</v>
@@ -5520,11 +5520,11 @@
     </row>
     <row r="350" s="1" customFormat="1" spans="1:3">
       <c r="A350" s="1">
-        <v>83010</v>
+        <v>82010</v>
       </c>
       <c r="B350" s="1">
-        <f>INT(A350/1000)</f>
-        <v>83</v>
+        <f t="shared" ref="B350:B356" si="24">INT(A350/1000)</f>
+        <v>82</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>112</v>
@@ -5532,11 +5532,11 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>83020</v>
+        <v>82020</v>
       </c>
       <c r="B351" s="1">
-        <f>INT(A351/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>145</v>
@@ -5544,11 +5544,11 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>83030</v>
+        <v>82030</v>
       </c>
       <c r="B352" s="1">
-        <f>INT(A352/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>51</v>
@@ -5556,11 +5556,11 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>83040</v>
+        <v>82040</v>
       </c>
       <c r="B353" s="1">
-        <f>INT(A353/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>52</v>
@@ -5568,11 +5568,11 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>83050</v>
+        <v>82050</v>
       </c>
       <c r="B354" s="1">
-        <f>INT(A354/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>53</v>
@@ -5580,11 +5580,11 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>83060</v>
+        <v>82060</v>
       </c>
       <c r="B355" s="1">
-        <f>INT(A355/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>54</v>
@@ -5592,11 +5592,11 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>83070</v>
+        <v>82070</v>
       </c>
       <c r="B356" s="1">
-        <f>INT(A356/1000)</f>
-        <v>83</v>
+        <f t="shared" si="24"/>
+        <v>82</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>55</v>
@@ -5604,11 +5604,11 @@
     </row>
     <row r="358" s="1" customFormat="1" spans="1:3">
       <c r="A358" s="1">
-        <v>84010</v>
+        <v>83010</v>
       </c>
       <c r="B358" s="1">
         <f>INT(A358/1000)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>51</v>
@@ -5616,11 +5616,11 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>84020</v>
+        <v>83020</v>
       </c>
       <c r="B359" s="1">
         <f>INT(A359/1000)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>52</v>
@@ -5628,11 +5628,11 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>84030</v>
+        <v>83030</v>
       </c>
       <c r="B360" s="1">
         <f>INT(A360/1000)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>53</v>
@@ -5640,11 +5640,11 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>84040</v>
+        <v>83040</v>
       </c>
       <c r="B361" s="1">
         <f>INT(A361/1000)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>54</v>
@@ -5652,11 +5652,11 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>84050</v>
+        <v>83050</v>
       </c>
       <c r="B362" s="1">
         <f>INT(A362/1000)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>55</v>
@@ -5664,11 +5664,11 @@
     </row>
     <row r="364" s="1" customFormat="1" spans="1:3">
       <c r="A364" s="1">
-        <v>85010</v>
+        <v>84010</v>
       </c>
       <c r="B364" s="1">
         <f>INT(A364/1000)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>48</v>
@@ -5676,11 +5676,11 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>85020</v>
+        <v>84020</v>
       </c>
       <c r="B365" s="1">
         <f>INT(A365/1000)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>146</v>
@@ -5688,11 +5688,11 @@
     </row>
     <row r="367" s="1" customFormat="1" spans="1:3">
       <c r="A367" s="1">
-        <v>86010</v>
+        <v>85010</v>
       </c>
       <c r="B367" s="1">
         <f>INT(A367/1000)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>74</v>
@@ -5700,11 +5700,11 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>86020</v>
+        <v>85020</v>
       </c>
       <c r="B368" s="1">
         <f>INT(A368/1000)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>63</v>
@@ -5712,11 +5712,11 @@
     </row>
     <row r="370" s="1" customFormat="1" spans="1:3">
       <c r="A370" s="1">
-        <v>91010</v>
+        <v>90010</v>
       </c>
       <c r="B370" s="1">
-        <f>INT(A370/1000)</f>
-        <v>91</v>
+        <f t="shared" ref="B370:B375" si="25">INT(A370/1000)</f>
+        <v>90</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>112</v>
@@ -5724,11 +5724,11 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>91020</v>
+        <v>90020</v>
       </c>
       <c r="B371" s="1">
-        <f>INT(A371/1000)</f>
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>52</v>
@@ -5736,11 +5736,11 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>91030</v>
+        <v>90030</v>
       </c>
       <c r="B372" s="1">
-        <f>INT(A372/1000)</f>
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>53</v>
@@ -5748,11 +5748,11 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>91040</v>
+        <v>90040</v>
       </c>
       <c r="B373" s="1">
-        <f>INT(A373/1000)</f>
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>54</v>
@@ -5760,11 +5760,11 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>91050</v>
+        <v>90050</v>
       </c>
       <c r="B374" s="1">
-        <f>INT(A374/1000)</f>
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>55</v>
@@ -5772,11 +5772,11 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>91060</v>
+        <v>90060</v>
       </c>
       <c r="B375" s="1">
-        <f>INT(A375/1000)</f>
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>147</v>
@@ -5784,11 +5784,11 @@
     </row>
     <row r="377" s="1" customFormat="1" spans="1:3">
       <c r="A377" s="1">
-        <v>92010</v>
+        <v>91010</v>
       </c>
       <c r="B377" s="1">
         <f>INT(A377/1000)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>112</v>
@@ -5796,11 +5796,11 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>92020</v>
+        <v>91020</v>
       </c>
       <c r="B378" s="1">
         <f>INT(A378/1000)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>52</v>
@@ -5808,11 +5808,11 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>92030</v>
+        <v>91030</v>
       </c>
       <c r="B379" s="1">
         <f>INT(A379/1000)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>53</v>
@@ -5820,11 +5820,11 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>92040</v>
+        <v>91040</v>
       </c>
       <c r="B380" s="1">
         <f>INT(A380/1000)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>54</v>
@@ -5832,11 +5832,11 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>92050</v>
+        <v>91050</v>
       </c>
       <c r="B381" s="1">
         <f>INT(A381/1000)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>55</v>
@@ -5844,11 +5844,11 @@
     </row>
     <row r="383" s="1" customFormat="1" spans="1:3">
       <c r="A383" s="1">
-        <v>93010</v>
+        <v>92010</v>
       </c>
       <c r="B383" s="1">
-        <f>INT(A383/1000)</f>
-        <v>93</v>
+        <f t="shared" ref="B383:B388" si="26">INT(A383/1000)</f>
+        <v>92</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>112</v>
@@ -5856,11 +5856,11 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>93020</v>
+        <v>92020</v>
       </c>
       <c r="B384" s="1">
-        <f>INT(A384/1000)</f>
-        <v>93</v>
+        <f t="shared" si="26"/>
+        <v>92</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>52</v>
@@ -5868,11 +5868,11 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>93030</v>
+        <v>92030</v>
       </c>
       <c r="B385" s="1">
-        <f>INT(A385/1000)</f>
-        <v>93</v>
+        <f t="shared" si="26"/>
+        <v>92</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>53</v>
@@ -5880,11 +5880,11 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>93040</v>
+        <v>92040</v>
       </c>
       <c r="B386" s="1">
-        <f>INT(A386/1000)</f>
-        <v>93</v>
+        <f t="shared" si="26"/>
+        <v>92</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>54</v>
@@ -5892,11 +5892,11 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>93050</v>
+        <v>92050</v>
       </c>
       <c r="B387" s="1">
-        <f>INT(A387/1000)</f>
-        <v>93</v>
+        <f t="shared" si="26"/>
+        <v>92</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>55</v>
@@ -5904,11 +5904,11 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>93060</v>
+        <v>92060</v>
       </c>
       <c r="B388" s="1">
-        <f>INT(A388/1000)</f>
-        <v>93</v>
+        <f t="shared" si="26"/>
+        <v>92</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>148</v>
@@ -5916,11 +5916,11 @@
     </row>
     <row r="390" s="1" customFormat="1" spans="1:3">
       <c r="A390" s="1">
-        <v>94010</v>
+        <v>93010</v>
       </c>
       <c r="B390" s="1">
         <f>INT(A390/1000)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>52</v>
@@ -5928,11 +5928,11 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>94020</v>
+        <v>93020</v>
       </c>
       <c r="B391" s="1">
         <f>INT(A391/1000)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>54</v>
@@ -5940,11 +5940,11 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>94030</v>
+        <v>93030</v>
       </c>
       <c r="B392" s="1">
         <f>INT(A392/1000)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>55</v>
@@ -5952,11 +5952,11 @@
     </row>
     <row r="394" s="1" customFormat="1" spans="1:3">
       <c r="A394" s="1">
-        <v>95010</v>
+        <v>94010</v>
       </c>
       <c r="B394" s="1">
         <f>INT(A394/1000)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>52</v>
@@ -5964,11 +5964,11 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>95020</v>
+        <v>94020</v>
       </c>
       <c r="B395" s="1">
         <f>INT(A395/1000)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>55</v>
@@ -5976,11 +5976,11 @@
     </row>
     <row r="397" s="1" customFormat="1" spans="1:3">
       <c r="A397" s="1">
-        <v>96010</v>
+        <v>95010</v>
       </c>
       <c r="B397" s="1">
         <f>INT(A397/1000)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>52</v>
@@ -5988,11 +5988,11 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>96020</v>
+        <v>95020</v>
       </c>
       <c r="B398" s="1">
         <f>INT(A398/1000)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>54</v>
@@ -6000,11 +6000,11 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>96030</v>
+        <v>95030</v>
       </c>
       <c r="B399" s="1">
         <f>INT(A399/1000)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>55</v>
@@ -6012,11 +6012,11 @@
     </row>
     <row r="401" s="1" customFormat="1" spans="1:3">
       <c r="A401" s="1">
-        <v>101010</v>
+        <v>100010</v>
       </c>
       <c r="B401" s="1">
-        <f>INT(A401/1000)</f>
-        <v>101</v>
+        <f t="shared" ref="B401:B408" si="27">INT(A401/1000)</f>
+        <v>100</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>129</v>
@@ -6024,11 +6024,11 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>101020</v>
+        <v>100020</v>
       </c>
       <c r="B402" s="1">
-        <f>INT(A402/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>52</v>
@@ -6036,11 +6036,11 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>101030</v>
+        <v>100030</v>
       </c>
       <c r="B403" s="1">
-        <f>INT(A403/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>54</v>
@@ -6048,11 +6048,11 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>101040</v>
+        <v>100040</v>
       </c>
       <c r="B404" s="1">
-        <f>INT(A404/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>55</v>
@@ -6060,11 +6060,11 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>101050</v>
+        <v>100050</v>
       </c>
       <c r="B405" s="1">
-        <f>INT(A405/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>149</v>
@@ -6072,11 +6072,11 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>101060</v>
+        <v>100060</v>
       </c>
       <c r="B406" s="1">
-        <f>INT(A406/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>150</v>
@@ -6084,11 +6084,11 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>101070</v>
+        <v>100070</v>
       </c>
       <c r="B407" s="1">
-        <f>INT(A407/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>151</v>
@@ -6096,11 +6096,11 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>101080</v>
+        <v>100080</v>
       </c>
       <c r="B408" s="1">
-        <f>INT(A408/1000)</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>152</v>
@@ -6108,11 +6108,11 @@
     </row>
     <row r="410" s="1" customFormat="1" spans="1:3">
       <c r="A410" s="1">
-        <v>102010</v>
+        <v>101010</v>
       </c>
       <c r="B410" s="1">
         <f>INT(A410/1000)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>153</v>
@@ -6120,11 +6120,11 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>102020</v>
+        <v>101020</v>
       </c>
       <c r="B411" s="1">
         <f>INT(A411/1000)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>154</v>
@@ -6132,11 +6132,11 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>102030</v>
+        <v>101030</v>
       </c>
       <c r="B412" s="1">
         <f>INT(A412/1000)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>155</v>
@@ -6144,11 +6144,11 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>102040</v>
+        <v>101040</v>
       </c>
       <c r="B413" s="1">
         <f>INT(A413/1000)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>156</v>
@@ -6156,11 +6156,11 @@
     </row>
     <row r="415" s="1" customFormat="1" spans="1:3">
       <c r="A415" s="1">
-        <v>103010</v>
+        <v>102010</v>
       </c>
       <c r="B415" s="1">
-        <f t="shared" ref="B414:B419" si="13">INT(A415/1000)</f>
-        <v>103</v>
+        <f t="shared" ref="B414:B424" si="28">INT(A415/1000)</f>
+        <v>102</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>157</v>
@@ -6168,18 +6168,18 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="1">
-        <v>103020</v>
+        <v>102020</v>
       </c>
       <c r="B416" s="1">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D416" s="1">
         <f>A415</f>
-        <v>103010</v>
+        <v>102010</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>158</v>
@@ -6187,11 +6187,11 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>103030</v>
+        <v>102030</v>
       </c>
       <c r="B417" s="1">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>159</v>
@@ -6199,11 +6199,11 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>103040</v>
+        <v>102040</v>
       </c>
       <c r="B418" s="1">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>160</v>
@@ -6211,11 +6211,11 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>103050</v>
+        <v>102050</v>
       </c>
       <c r="B419" s="1">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>161</v>
@@ -6223,11 +6223,11 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>103060</v>
+        <v>102060</v>
       </c>
       <c r="B420" s="1">
-        <f>INT(A420/1000)</f>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>162</v>
@@ -6235,11 +6235,11 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>103070</v>
+        <v>102070</v>
       </c>
       <c r="B421" s="1">
-        <f>INT(A421/1000)</f>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>163</v>
@@ -6247,11 +6247,11 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>103080</v>
+        <v>102080</v>
       </c>
       <c r="B422" s="1">
-        <f>INT(A422/1000)</f>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>164</v>
@@ -6259,11 +6259,11 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>103090</v>
+        <v>102090</v>
       </c>
       <c r="B423" s="1">
-        <f>INT(A423/1000)</f>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>165</v>
@@ -6271,11 +6271,11 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>103100</v>
+        <v>102100</v>
       </c>
       <c r="B424" s="1">
-        <f>INT(A424/1000)</f>
-        <v>103</v>
+        <f t="shared" si="28"/>
+        <v>102</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>55</v>
@@ -6283,11 +6283,11 @@
     </row>
     <row r="426" s="1" customFormat="1" spans="1:3">
       <c r="A426" s="1">
-        <v>104010</v>
+        <v>103010</v>
       </c>
       <c r="B426" s="1">
-        <f>INT(A426/1000)</f>
-        <v>104</v>
+        <f t="shared" ref="B426:B434" si="29">INT(A426/1000)</f>
+        <v>103</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>112</v>
@@ -6295,11 +6295,11 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>104020</v>
+        <v>103020</v>
       </c>
       <c r="B427" s="1">
-        <f>INT(A427/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>129</v>
@@ -6307,11 +6307,11 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>104030</v>
+        <v>103030</v>
       </c>
       <c r="B428" s="1">
-        <f>INT(A428/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>51</v>
@@ -6319,11 +6319,11 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>104040</v>
+        <v>103040</v>
       </c>
       <c r="B429" s="1">
-        <f>INT(A429/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>166</v>
@@ -6331,11 +6331,11 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>104050</v>
+        <v>103050</v>
       </c>
       <c r="B430" s="1">
-        <f>INT(A430/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>52</v>
@@ -6343,11 +6343,11 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>104060</v>
+        <v>103060</v>
       </c>
       <c r="B431" s="1">
-        <f>INT(A431/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>53</v>
@@ -6355,11 +6355,11 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>104070</v>
+        <v>103070</v>
       </c>
       <c r="B432" s="1">
-        <f>INT(A432/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>54</v>
@@ -6367,11 +6367,11 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>104080</v>
+        <v>103080</v>
       </c>
       <c r="B433" s="1">
-        <f>INT(A433/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>55</v>
@@ -6379,11 +6379,11 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>104090</v>
+        <v>103090</v>
       </c>
       <c r="B434" s="1">
-        <f>INT(A434/1000)</f>
-        <v>104</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>167</v>
@@ -6391,11 +6391,11 @@
     </row>
     <row r="436" s="1" customFormat="1" spans="1:3">
       <c r="A436" s="1">
-        <v>105010</v>
+        <v>104010</v>
       </c>
       <c r="B436" s="1">
-        <f t="shared" ref="B435:B446" si="14">INT(A436/1000)</f>
-        <v>105</v>
+        <f t="shared" ref="B435:B446" si="30">INT(A436/1000)</f>
+        <v>104</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>74</v>
@@ -6403,11 +6403,11 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>105020</v>
+        <v>104020</v>
       </c>
       <c r="B437" s="1">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>129</v>
@@ -6415,11 +6415,11 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>105030</v>
+        <v>104030</v>
       </c>
       <c r="B438" s="1">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>51</v>
@@ -6427,11 +6427,11 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>105040</v>
+        <v>104040</v>
       </c>
       <c r="B439" s="1">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>52</v>
@@ -6439,11 +6439,11 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>105050</v>
+        <v>104050</v>
       </c>
       <c r="B440" s="1">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>54</v>
@@ -6451,11 +6451,11 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>105060</v>
+        <v>104060</v>
       </c>
       <c r="B441" s="1">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>55</v>
@@ -6463,11 +6463,11 @@
     </row>
     <row r="443" s="1" customFormat="1" spans="1:3">
       <c r="A443" s="1">
-        <v>111010</v>
+        <v>110010</v>
       </c>
       <c r="B443" s="1">
-        <f>INT(A443/1000)</f>
-        <v>111</v>
+        <f t="shared" ref="B443:B451" si="31">INT(A443/1000)</f>
+        <v>110</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>168</v>
@@ -6475,11 +6475,11 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>111020</v>
+        <v>110020</v>
       </c>
       <c r="B444" s="1">
-        <f>INT(A444/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>49</v>
@@ -6487,11 +6487,11 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>111030</v>
+        <v>110030</v>
       </c>
       <c r="B445" s="1">
-        <f>INT(A445/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>109</v>
@@ -6499,11 +6499,11 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>111040</v>
+        <v>110040</v>
       </c>
       <c r="B446" s="1">
-        <f>INT(A446/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>51</v>
@@ -6511,11 +6511,11 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>111050</v>
+        <v>110050</v>
       </c>
       <c r="B447" s="1">
-        <f>INT(A447/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>52</v>
@@ -6523,11 +6523,11 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>111060</v>
+        <v>110060</v>
       </c>
       <c r="B448" s="1">
-        <f>INT(A448/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>53</v>
@@ -6535,11 +6535,11 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>111070</v>
+        <v>110070</v>
       </c>
       <c r="B449" s="1">
-        <f>INT(A449/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>54</v>
@@ -6547,11 +6547,11 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>111080</v>
+        <v>110080</v>
       </c>
       <c r="B450" s="1">
-        <f>INT(A450/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>55</v>
@@ -6559,11 +6559,11 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>111090</v>
+        <v>110090</v>
       </c>
       <c r="B451" s="1">
-        <f>INT(A451/1000)</f>
-        <v>111</v>
+        <f t="shared" si="31"/>
+        <v>110</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>169</v>
@@ -6571,11 +6571,11 @@
     </row>
     <row r="453" s="1" customFormat="1" spans="1:3">
       <c r="A453" s="1">
-        <v>112010</v>
+        <v>111010</v>
       </c>
       <c r="B453" s="1">
-        <f t="shared" ref="B452:B469" si="15">INT(A453/1000)</f>
-        <v>112</v>
+        <f t="shared" ref="B452:B469" si="32">INT(A453/1000)</f>
+        <v>111</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>170</v>
@@ -6583,11 +6583,11 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>112020</v>
+        <v>111020</v>
       </c>
       <c r="B454" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>171</v>
@@ -6595,11 +6595,11 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>112030</v>
+        <v>111030</v>
       </c>
       <c r="B455" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>172</v>
@@ -6607,11 +6607,11 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>112040</v>
+        <v>111040</v>
       </c>
       <c r="B456" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>52</v>
@@ -6619,11 +6619,11 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>112050</v>
+        <v>111050</v>
       </c>
       <c r="B457" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>53</v>
@@ -6631,11 +6631,11 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>112060</v>
+        <v>111060</v>
       </c>
       <c r="B458" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>54</v>
@@ -6643,11 +6643,11 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>112070</v>
+        <v>111070</v>
       </c>
       <c r="B459" s="1">
-        <f t="shared" si="15"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>55</v>
@@ -6655,11 +6655,11 @@
     </row>
     <row r="461" s="1" customFormat="1" spans="1:3">
       <c r="A461" s="1">
-        <v>113010</v>
+        <v>112010</v>
       </c>
       <c r="B461" s="1">
-        <f>INT(A461/1000)</f>
-        <v>113</v>
+        <f t="shared" ref="B461:B467" si="33">INT(A461/1000)</f>
+        <v>112</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>173</v>
@@ -6667,11 +6667,11 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>113020</v>
+        <v>112020</v>
       </c>
       <c r="B462" s="1">
-        <f>INT(A462/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>52</v>
@@ -6679,11 +6679,11 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>113030</v>
+        <v>112030</v>
       </c>
       <c r="B463" s="1">
-        <f>INT(A463/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>53</v>
@@ -6691,11 +6691,11 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>113040</v>
+        <v>112040</v>
       </c>
       <c r="B464" s="1">
-        <f>INT(A464/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>54</v>
@@ -6703,11 +6703,11 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>113050</v>
+        <v>112050</v>
       </c>
       <c r="B465" s="1">
-        <f>INT(A465/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>55</v>
@@ -6715,11 +6715,11 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>113060</v>
+        <v>112060</v>
       </c>
       <c r="B466" s="1">
-        <f>INT(A466/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>174</v>
@@ -6727,11 +6727,11 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>113070</v>
+        <v>112070</v>
       </c>
       <c r="B467" s="1">
-        <f>INT(A467/1000)</f>
-        <v>113</v>
+        <f t="shared" si="33"/>
+        <v>112</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>175</v>
@@ -6739,11 +6739,11 @@
     </row>
     <row r="469" s="1" customFormat="1" spans="1:3">
       <c r="A469" s="1">
-        <v>114010</v>
+        <v>113010</v>
       </c>
       <c r="B469" s="1">
-        <f t="shared" ref="B468:B491" si="16">INT(A469/1000)</f>
-        <v>114</v>
+        <f t="shared" ref="B468:B491" si="34">INT(A469/1000)</f>
+        <v>113</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>176</v>
@@ -6751,11 +6751,11 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>114020</v>
+        <v>113020</v>
       </c>
       <c r="B470" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>177</v>
@@ -6763,11 +6763,11 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>114030</v>
+        <v>113030</v>
       </c>
       <c r="B471" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>178</v>
@@ -6775,11 +6775,11 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>114040</v>
+        <v>113040</v>
       </c>
       <c r="B472" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>179</v>
@@ -6787,11 +6787,11 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>114050</v>
+        <v>113050</v>
       </c>
       <c r="B473" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>180</v>
@@ -6799,11 +6799,11 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>114060</v>
+        <v>113060</v>
       </c>
       <c r="B474" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>181</v>
@@ -6811,11 +6811,11 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>114070</v>
+        <v>113070</v>
       </c>
       <c r="B475" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>182</v>
@@ -6823,11 +6823,11 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>114080</v>
+        <v>113080</v>
       </c>
       <c r="B476" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>112</v>
@@ -6835,11 +6835,11 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>114090</v>
+        <v>113090</v>
       </c>
       <c r="B477" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>50</v>
@@ -6847,11 +6847,11 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>114100</v>
+        <v>113100</v>
       </c>
       <c r="B478" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>51</v>
@@ -6859,11 +6859,11 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1">
-        <v>114110</v>
+        <v>113110</v>
       </c>
       <c r="B479" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>183</v>
@@ -6871,11 +6871,11 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>114120</v>
+        <v>113120</v>
       </c>
       <c r="B480" s="1">
-        <f t="shared" si="16"/>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>52</v>
@@ -6883,11 +6883,11 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1">
-        <v>114130</v>
+        <v>113130</v>
       </c>
       <c r="B481" s="1">
-        <f>INT(A481/1000)</f>
-        <v>114</v>
+        <f t="shared" si="34"/>
+        <v>113</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>54</v>
@@ -6895,11 +6895,11 @@
     </row>
     <row r="483" s="1" customFormat="1" spans="1:3">
       <c r="A483" s="1">
-        <v>115010</v>
+        <v>114010</v>
       </c>
       <c r="B483" s="1">
-        <f>INT(A483/1000)</f>
-        <v>115</v>
+        <f t="shared" ref="B483:B493" si="35">INT(A483/1000)</f>
+        <v>114</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>184</v>
@@ -6907,11 +6907,11 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1">
-        <v>115020</v>
+        <v>114020</v>
       </c>
       <c r="B484" s="1">
-        <f>INT(A484/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>48</v>
@@ -6919,11 +6919,11 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>115030</v>
+        <v>114030</v>
       </c>
       <c r="B485" s="1">
-        <f>INT(A485/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>112</v>
@@ -6931,11 +6931,11 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>115040</v>
+        <v>114040</v>
       </c>
       <c r="B486" s="1">
-        <f>INT(A486/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>74</v>
@@ -6943,11 +6943,11 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1">
-        <v>115050</v>
+        <v>114050</v>
       </c>
       <c r="B487" s="1">
-        <f>INT(A487/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>63</v>
@@ -6955,11 +6955,11 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1">
-        <v>115060</v>
+        <v>114060</v>
       </c>
       <c r="B488" s="1">
-        <f>INT(A488/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>51</v>
@@ -6967,11 +6967,11 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>115070</v>
+        <v>114070</v>
       </c>
       <c r="B489" s="1">
-        <f>INT(A489/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>82</v>
@@ -6979,11 +6979,11 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>115080</v>
+        <v>114080</v>
       </c>
       <c r="B490" s="1">
-        <f>INT(A490/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>52</v>
@@ -6991,11 +6991,11 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>115090</v>
+        <v>114090</v>
       </c>
       <c r="B491" s="1">
-        <f>INT(A491/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>65</v>
@@ -7003,11 +7003,11 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>115100</v>
+        <v>114100</v>
       </c>
       <c r="B492" s="1">
-        <f>INT(A492/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>54</v>
@@ -7015,11 +7015,11 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>115110</v>
+        <v>114110</v>
       </c>
       <c r="B493" s="1">
-        <f>INT(A493/1000)</f>
-        <v>115</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>55</v>
@@ -7027,11 +7027,11 @@
     </row>
     <row r="495" s="1" customFormat="1" spans="1:3">
       <c r="A495" s="1">
-        <v>121010</v>
+        <v>120010</v>
       </c>
       <c r="B495" s="1">
-        <f>INT(A495/1000)</f>
-        <v>121</v>
+        <f t="shared" ref="B495:B501" si="36">INT(A495/1000)</f>
+        <v>120</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>112</v>
@@ -7039,11 +7039,11 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>121020</v>
+        <v>120020</v>
       </c>
       <c r="B496" s="1">
-        <f>INT(A496/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>130</v>
@@ -7051,11 +7051,11 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>121030</v>
+        <v>120030</v>
       </c>
       <c r="B497" s="1">
-        <f>INT(A497/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>51</v>
@@ -7063,11 +7063,11 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>121040</v>
+        <v>120040</v>
       </c>
       <c r="B498" s="1">
-        <f>INT(A498/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>52</v>
@@ -7075,11 +7075,11 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>121050</v>
+        <v>120050</v>
       </c>
       <c r="B499" s="1">
-        <f>INT(A499/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>53</v>
@@ -7087,11 +7087,11 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>121060</v>
+        <v>120060</v>
       </c>
       <c r="B500" s="1">
-        <f>INT(A500/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>54</v>
@@ -7099,11 +7099,11 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>121070</v>
+        <v>120070</v>
       </c>
       <c r="B501" s="1">
-        <f>INT(A501/1000)</f>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>120</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>55</v>
@@ -7111,11 +7111,11 @@
     </row>
     <row r="503" s="1" customFormat="1" spans="1:3">
       <c r="A503" s="1">
-        <v>122010</v>
+        <v>121010</v>
       </c>
       <c r="B503" s="1">
-        <f t="shared" ref="B502:B518" si="17">INT(A503/1000)</f>
-        <v>122</v>
+        <f t="shared" ref="B502:B518" si="37">INT(A503/1000)</f>
+        <v>121</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>185</v>
@@ -7123,11 +7123,11 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>122020</v>
+        <v>121020</v>
       </c>
       <c r="B504" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>145</v>
@@ -7135,11 +7135,11 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>122030</v>
+        <v>121030</v>
       </c>
       <c r="B505" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>74</v>
@@ -7147,11 +7147,11 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>122040</v>
+        <v>121040</v>
       </c>
       <c r="B506" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>51</v>
@@ -7159,11 +7159,11 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>122050</v>
+        <v>121050</v>
       </c>
       <c r="B507" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>183</v>
@@ -7171,11 +7171,11 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>122060</v>
+        <v>121060</v>
       </c>
       <c r="B508" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>52</v>
@@ -7183,11 +7183,11 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>122070</v>
+        <v>121070</v>
       </c>
       <c r="B509" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>53</v>
@@ -7195,11 +7195,11 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>122080</v>
+        <v>121080</v>
       </c>
       <c r="B510" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>55</v>
@@ -7207,11 +7207,11 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>122090</v>
+        <v>121090</v>
       </c>
       <c r="B511" s="1">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>186</v>
@@ -7219,11 +7219,11 @@
     </row>
     <row r="513" s="1" customFormat="1" spans="1:3">
       <c r="A513" s="1">
-        <v>123010</v>
+        <v>122010</v>
       </c>
       <c r="B513" s="1">
-        <f>INT(A513/1000)</f>
-        <v>123</v>
+        <f t="shared" ref="B513:B518" si="38">INT(A513/1000)</f>
+        <v>122</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>187</v>
@@ -7231,11 +7231,11 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>123020</v>
+        <v>122020</v>
       </c>
       <c r="B514" s="1">
-        <f>INT(A514/1000)</f>
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>122</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>112</v>
@@ -7243,11 +7243,11 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>123030</v>
+        <v>122030</v>
       </c>
       <c r="B515" s="1">
-        <f>INT(A515/1000)</f>
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>122</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>52</v>
@@ -7255,11 +7255,11 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>123040</v>
+        <v>122040</v>
       </c>
       <c r="B516" s="1">
-        <f>INT(A516/1000)</f>
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>122</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>54</v>
@@ -7267,11 +7267,11 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>123050</v>
+        <v>122050</v>
       </c>
       <c r="B517" s="1">
-        <f>INT(A517/1000)</f>
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>122</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>55</v>
@@ -7279,11 +7279,11 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>123060</v>
+        <v>122060</v>
       </c>
       <c r="B518" s="1">
-        <f>INT(A518/1000)</f>
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>122</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>188</v>
@@ -7291,11 +7291,11 @@
     </row>
     <row r="520" s="1" customFormat="1" spans="1:3">
       <c r="A520" s="1">
-        <v>124010</v>
+        <v>123010</v>
       </c>
       <c r="B520" s="1">
-        <f>INT(A520/1000)</f>
-        <v>124</v>
+        <f t="shared" ref="B520:B525" si="39">INT(A520/1000)</f>
+        <v>123</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>168</v>
@@ -7303,11 +7303,11 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>124020</v>
+        <v>123020</v>
       </c>
       <c r="B521" s="1">
-        <f>INT(A521/1000)</f>
-        <v>124</v>
+        <f t="shared" si="39"/>
+        <v>123</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>74</v>
@@ -7315,11 +7315,11 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>124030</v>
+        <v>123030</v>
       </c>
       <c r="B522" s="1">
-        <f>INT(A522/1000)</f>
-        <v>124</v>
+        <f t="shared" si="39"/>
+        <v>123</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>52</v>
@@ -7327,11 +7327,11 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>124040</v>
+        <v>123040</v>
       </c>
       <c r="B523" s="1">
-        <f>INT(A523/1000)</f>
-        <v>124</v>
+        <f t="shared" si="39"/>
+        <v>123</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>64</v>
@@ -7339,11 +7339,11 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>124050</v>
+        <v>123050</v>
       </c>
       <c r="B524" s="1">
-        <f>INT(A524/1000)</f>
-        <v>124</v>
+        <f t="shared" si="39"/>
+        <v>123</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>54</v>
@@ -7351,11 +7351,11 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>124060</v>
+        <v>123060</v>
       </c>
       <c r="B525" s="1">
-        <f>INT(A525/1000)</f>
-        <v>124</v>
+        <f t="shared" si="39"/>
+        <v>123</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>174</v>
@@ -7363,11 +7363,11 @@
     </row>
     <row r="527" s="1" customFormat="1" spans="1:3">
       <c r="A527" s="1">
-        <v>125010</v>
+        <v>124010</v>
       </c>
       <c r="B527" s="1">
         <f>INT(A527/1000)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>112</v>
@@ -7375,11 +7375,11 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>125020</v>
+        <v>124020</v>
       </c>
       <c r="B528" s="1">
         <f>INT(A528/1000)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>166</v>
@@ -7387,11 +7387,11 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>125030</v>
+        <v>124030</v>
       </c>
       <c r="B529" s="1">
         <f>INT(A529/1000)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>65</v>
@@ -7399,11 +7399,11 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>125040</v>
+        <v>124040</v>
       </c>
       <c r="B530" s="1">
         <f>INT(A530/1000)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>174</v>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Genus.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Genus.xlsx
@@ -1529,7 +1529,7 @@
   <sheetPr/>
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
       <selection activeCell="M319" sqref="M319"/>
     </sheetView>
   </sheetViews>
